--- a/data/ColorCoding.xlsx
+++ b/data/ColorCoding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\cloud\cloud_data\Projects\CACSLabeler\code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fede9\Desktop\3D-Slicer CACS\Export und settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38E0C80-86B6-4B84-B3DF-54B162FE74CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6AEFF9-3EF6-4B1B-B009-062843A72CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D042E6C-6B84-4002-B992-E11D0E9C8519}"/>
+    <workbookView xWindow="3012" yWindow="2808" windowWidth="17280" windowHeight="8964" xr2:uid="{3D042E6C-6B84-4002-B992-E11D0E9C8519}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t># Color</t>
   </si>
@@ -120,15 +120,9 @@
     <t>26 BRONCHUS 100 100 100 255</t>
   </si>
   <si>
-    <t>27 CALCIFIED_LUNG_NODULE 100 100 100 255</t>
-  </si>
-  <si>
     <t>28 LUNG_PARENCHYMA 100 100 100 255</t>
   </si>
   <si>
-    <t>29 LUNG_VESSEL 100 100 100 255</t>
-  </si>
-  <si>
     <t>30 BONE 100 100 100 255</t>
   </si>
   <si>
@@ -147,13 +141,34 @@
     <t>35 VALVE_PULMONIC 100 100 100 255</t>
   </si>
   <si>
-    <t>36 LCC 100 100 100 255</t>
-  </si>
-  <si>
-    <t>37 NCC 100 100 100 255</t>
-  </si>
-  <si>
-    <t>38 RCC 100 100 100 255</t>
+    <t>LM_BIF_LAD_LCX</t>
+  </si>
+  <si>
+    <t>LM_BIF_LAD</t>
+  </si>
+  <si>
+    <t>LM_BIF_LCX</t>
+  </si>
+  <si>
+    <t>RIM</t>
+  </si>
+  <si>
+    <t>VALVE_AORTIC</t>
+  </si>
+  <si>
+    <t>TRACHEA</t>
+  </si>
+  <si>
+    <t>27 LUNG_NODULE_CALCIFIED 100 100 100 255</t>
+  </si>
+  <si>
+    <t>29 LUNG_VESSEL_UNSPECIFIED 100 100 100 255</t>
+  </si>
+  <si>
+    <t>AORTA_ARC</t>
+  </si>
+  <si>
+    <t>COSTA</t>
   </si>
 </sst>
 </file>
@@ -169,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,108 +199,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0CFC34"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0CFC9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0BFDE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88F8E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0CB0C6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF646464"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF63F77F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0AC62E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF08A025"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF06701A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF055B15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF044410"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEE0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA80000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6C0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4343"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9B9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF0C00F6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,78 +241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF002D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFE6EED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAFC04"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF97A202"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2FD67"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF05E2ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF80F6FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6FBFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF03858B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF02656A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF013A3D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00191A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA7954B"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,18 +253,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB33B46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF040054"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA50021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF208482"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC00CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF663300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8CFA8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -413,50 +452,150 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -465,16 +604,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF040054"/>
-      <color rgb="FF7B7773"/>
-      <color rgb="FF6A6662"/>
-      <color rgb="FFFFFFFF"/>
-      <color rgb="FF000000"/>
-      <color rgb="FFB33B46"/>
-      <color rgb="FFC44444"/>
-      <color rgb="FFC6B980"/>
-      <color rgb="FFA7954B"/>
-      <color rgb="FF00191A"/>
+      <color rgb="FFD8CFA8"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF339966"/>
+      <color rgb="FF00CC00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -785,256 +924,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB245CCB-02F6-4E24-9C2E-9FBEC80A1483}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="46"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="38"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B23" s="26"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B24" s="27"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="23"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="38"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="26"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="27"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B39" s="47"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="50"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="35"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="36"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="28"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="29"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="30"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="31"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="32"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="33"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="34"/>
+      <c r="B45" s="45"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
